--- a/PythonResources/Data/Consumption/Sympheny/futu_1691_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1691_hea.xlsx
@@ -399,7 +399,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>82.76296824692525</v>
+        <v>82.76296824692524</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -415,7 +415,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>18.02530492576218</v>
+        <v>18.02530492576217</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>86.93893747681076</v>
+        <v>86.93893747681075</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>67.28881740560622</v>
+        <v>67.28881740560621</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>74.9951203672063</v>
+        <v>74.99512036720628</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -583,7 +583,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>80.34073611238924</v>
+        <v>80.34073611238922</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>20.84728595703227</v>
+        <v>20.84728595703226</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>81.34157370941773</v>
+        <v>81.34157370941772</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>12.92838926398726</v>
+        <v>12.92838926398725</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>56.12867225338219</v>
+        <v>56.12867225338218</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>57.1582308121995</v>
+        <v>57.15823081219949</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>32.72079532446188</v>
+        <v>32.72079532446187</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>68.12670750513901</v>
+        <v>68.126707505139</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>76.69258782313281</v>
+        <v>76.6925878231328</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>93.28802845837016</v>
+        <v>93.28802845837014</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>73.01337400377828</v>
+        <v>73.01337400377827</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>82.79930905571926</v>
+        <v>82.79930905571925</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>87.8310457184959</v>
+        <v>87.83104571849589</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>26.72933893138094</v>
+        <v>26.72933893138093</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>20.54389881781005</v>
+        <v>20.54389881781004</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>71.27810038386446</v>
+        <v>71.27810038386444</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>59.49195549305979</v>
+        <v>59.49195549305978</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>66.7483944103147</v>
+        <v>66.74839441031469</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>72.28479940166618</v>
+        <v>72.28479940166616</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>80.23083447289123</v>
+        <v>80.23083447289122</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>25.01604563936672</v>
+        <v>25.01604563936671</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>86.00433393451974</v>
+        <v>86.00433393451972</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>63.26729661309524</v>
+        <v>63.26729661309523</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>76.03024727575817</v>
+        <v>76.03024727575816</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>17.63818739079441</v>
+        <v>17.6381873907944</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>63.31829097382232</v>
+        <v>63.31829097382231</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>76.35086699205368</v>
+        <v>76.35086699205367</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>77.43581597717798</v>
+        <v>77.43581597717797</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>75.66537383262479</v>
+        <v>75.66537383262478</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>6.406796669071804</v>
+        <v>6.406796669071803</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>3.837325644712325</v>
+        <v>3.837325644712324</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>29.84020008545952</v>
+        <v>29.84020008545951</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>40.93440425398475</v>
+        <v>40.93440425398474</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>1.432076976866731</v>
+        <v>1.43207697686673</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>0.7690916732070354</v>
+        <v>0.7690916732070353</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>47.59942581522106</v>
+        <v>47.59942581522105</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>6.312603637246047</v>
+        <v>6.312603637246046</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>7.044489942095025</v>
+        <v>7.044489942095024</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>8.89675752064246</v>
+        <v>8.896757520642458</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>62.82388013160063</v>
+        <v>62.82388013160062</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>66.92189246520222</v>
+        <v>66.92189246520221</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>72.34106904108916</v>
+        <v>72.34106904108914</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>79.61685064689571</v>
+        <v>79.6168506468957</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>25.97075385490991</v>
+        <v>25.9707538549099</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>89.99097927343001</v>
+        <v>89.99097927343</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>89.96049988540923</v>
+        <v>89.96049988540922</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>43.44397155804185</v>
+        <v>43.44397155804184</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>79.80822603514157</v>
+        <v>79.80822603514156</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>83.42589493637722</v>
+        <v>83.4258949363772</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>88.61061468133508</v>
+        <v>88.61061468133506</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>89.36703103212001</v>
+        <v>89.36703103212</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>61.06604004170988</v>
+        <v>61.06604004170987</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>77.59876347467369</v>
+        <v>77.59876347467367</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>502</v>
       </c>
       <c r="B502">
-        <v>48.12167840611558</v>
+        <v>48.12167840611557</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>61.01035654436422</v>
+        <v>61.01035654436421</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>69.59704490610298</v>
+        <v>69.59704490610297</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>71.30389063526665</v>
+        <v>71.30389063526664</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>520</v>
       </c>
       <c r="B520">
-        <v>25.89279695862599</v>
+        <v>25.89279695862598</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>70.45808761769001</v>
+        <v>70.45808761769</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>541</v>
       </c>
       <c r="B541">
-        <v>26.14264001908479</v>
+        <v>26.14264001908478</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>45.78502301486867</v>
+        <v>45.78502301486866</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>46.00717086217397</v>
+        <v>46.00717086217396</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>73.94065077010278</v>
+        <v>73.94065077010276</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>49.1943184076161</v>
+        <v>49.19431840761609</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>580</v>
       </c>
       <c r="B580">
-        <v>62.5390150820218</v>
+        <v>62.53901508202179</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>3.72560696477462</v>
+        <v>3.725606964774619</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>7.355584849634043</v>
+        <v>7.355584849634042</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>5.965255842224621</v>
+        <v>5.96525584222462</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>622</v>
       </c>
       <c r="B622">
-        <v>13.84192099859854</v>
+        <v>13.84192099859853</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>21.13557993776344</v>
+        <v>21.13557993776343</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>8.279725755844863</v>
+        <v>8.279725755844861</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>4.998883399342701</v>
+        <v>4.9988833993427</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>73.81345793932375</v>
+        <v>73.81345793932374</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>10.65840753403581</v>
+        <v>10.6584075340358</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>54.93411469979855</v>
+        <v>54.93411469979854</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>4.960051486720073</v>
+        <v>4.960051486720072</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>3.958657054718122</v>
+        <v>3.958657054718121</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>695</v>
       </c>
       <c r="B695">
-        <v>25.19291401119884</v>
+        <v>25.19291401119883</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>55.99649721494593</v>
+        <v>55.99649721494592</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>59.00487142680464</v>
+        <v>59.00487142680463</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>9.550716236311386</v>
+        <v>9.550716236311384</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>9.01715110332454</v>
+        <v>9.017151103324538</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>721</v>
       </c>
       <c r="B721">
-        <v>23.95621284225569</v>
+        <v>23.95621284225568</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>43.88475040018851</v>
+        <v>43.8847504001885</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>2.826983753900043</v>
+        <v>2.826983753900042</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>20.36875956510603</v>
+        <v>20.36875956510602</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>7.164209461388184</v>
+        <v>7.164209461388183</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>4.281562725115192</v>
+        <v>4.281562725115191</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>15.13515557089946</v>
+        <v>15.13515557089945</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>51.37242236694722</v>
+        <v>51.37242236694721</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>60.17715558145002</v>
+        <v>60.17715558145001</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>45.82839752859055</v>
+        <v>45.82839752859054</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>75.34416797425196</v>
+        <v>75.34416797425195</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>18.91070184066197</v>
+        <v>18.91070184066196</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>4.576655953943301</v>
+        <v>4.5766559539433</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>32.98836918275969</v>
+        <v>32.98836918275968</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>43.37275529564714</v>
+        <v>43.37275529564713</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>6.28309138365285</v>
+        <v>6.283091383652849</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>0.5629279203503255</v>
+        <v>0.5629279203503254</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>19.3920124074555</v>
+        <v>19.39201240745549</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>2.685093410532153</v>
+        <v>2.685093410532152</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>1.459145017997493</v>
+        <v>1.459145017997492</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>0.7275048928209905</v>
+        <v>0.7275048928209904</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>39.85179983716974</v>
+        <v>39.85179983716973</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>908</v>
       </c>
       <c r="B908">
-        <v>39.50011459077612</v>
+        <v>39.50011459077611</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>65.7422815345903</v>
+        <v>65.74228153459029</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>23.55748969415693</v>
+        <v>23.55748969415692</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>937</v>
       </c>
       <c r="B937">
-        <v>52.99515670801509</v>
+        <v>52.99515670801508</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>31.31639890719672</v>
+        <v>31.31639890719671</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>968</v>
       </c>
       <c r="B968">
-        <v>30.49111086232637</v>
+        <v>30.49111086232636</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8383,7 +8383,7 @@
         <v>1005</v>
       </c>
       <c r="B1005">
-        <v>65.40378448493645</v>
+        <v>65.40378448493644</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>86.38122329023822</v>
+        <v>86.38122329023821</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>55.15831404437448</v>
+        <v>55.15831404437447</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>37.3167353527491</v>
+        <v>37.31673535274909</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>1038</v>
       </c>
       <c r="B1038">
-        <v>61.82011182418552</v>
+        <v>61.82011182418551</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>1040</v>
       </c>
       <c r="B1040">
-        <v>6.6934201448826</v>
+        <v>6.693420144882599</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>7.999813606819412</v>
+        <v>7.999813606819411</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>7.914178249322567</v>
+        <v>7.914178249322566</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>49.47683888888564</v>
+        <v>49.47683888888563</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>4.747750826313794</v>
+        <v>4.747750826313793</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>3.335441491004771</v>
+        <v>3.33544149100477</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>0.4365263813756872</v>
+        <v>0.4365263813756871</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>32.85091886562752</v>
+        <v>32.85091886562751</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9015,7 +9015,7 @@
         <v>1084</v>
       </c>
       <c r="B1084">
-        <v>47.89718599050099</v>
+        <v>47.89718599050098</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>57.56589262697743</v>
+        <v>57.56589262697742</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>1088</v>
       </c>
       <c r="B1088">
-        <v>7.450715708783516</v>
+        <v>7.450715708783515</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>1100</v>
       </c>
       <c r="B1100">
-        <v>8.944616021255857</v>
+        <v>8.944616021255856</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>1104</v>
       </c>
       <c r="B1104">
-        <v>21.7233045986949</v>
+        <v>21.72330459869489</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>34.63923834353905</v>
+        <v>34.63923834353904</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>1117</v>
       </c>
       <c r="B1117">
-        <v>18.52206033629316</v>
+        <v>18.52206033629315</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>5.508299478743851</v>
+        <v>5.50829947874385</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>3.700197705722682</v>
+        <v>3.700197705722681</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>21.0718369868546</v>
+        <v>21.07183698685459</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>2.359177900568031</v>
+        <v>2.35917790056803</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>29.69864677378609</v>
+        <v>29.69864677378608</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>34.38719725029029</v>
+        <v>34.38719725029028</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>1202</v>
       </c>
       <c r="B1202">
-        <v>39.24016057948351</v>
+        <v>39.2401605794835</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>48.72276710641</v>
+        <v>48.72276710640999</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>14.78197566220867</v>
+        <v>14.78197566220866</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10367,7 +10367,7 @@
         <v>1253</v>
       </c>
       <c r="B1253">
-        <v>66.56024280349412</v>
+        <v>66.56024280349411</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>36.91171117731912</v>
+        <v>36.91171117731911</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>28.75826973203343</v>
+        <v>28.75826973203342</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10727,7 +10727,7 @@
         <v>1298</v>
       </c>
       <c r="B1298">
-        <v>48.27700605660609</v>
+        <v>48.27700605660608</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>5.710401267004715</v>
+        <v>5.710401267004714</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>3.66631869365343</v>
+        <v>3.666318693653429</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>6.045088393155972</v>
+        <v>6.045088393155971</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>30.83752083002408</v>
+        <v>30.83752083002407</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>1.862903126540455</v>
+        <v>1.862903126540454</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>1392</v>
       </c>
       <c r="B1392">
-        <v>11.04948152802551</v>
+        <v>11.0494815280255</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>30.17752485095873</v>
+        <v>30.17752485095872</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11511,7 +11511,7 @@
         <v>1396</v>
       </c>
       <c r="B1396">
-        <v>34.84556035475664</v>
+        <v>34.84556035475663</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>84.88568177994938</v>
+        <v>84.88568177994937</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11727,7 +11727,7 @@
         <v>1423</v>
       </c>
       <c r="B1423">
-        <v>89.18093092257006</v>
+        <v>89.18093092257004</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -11767,7 +11767,7 @@
         <v>1428</v>
       </c>
       <c r="B1428">
-        <v>32.79992450490045</v>
+        <v>32.79992450490044</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11823,7 +11823,7 @@
         <v>1435</v>
       </c>
       <c r="B1435">
-        <v>59.7337390999554</v>
+        <v>59.73373909995539</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11855,7 +11855,7 @@
         <v>1439</v>
       </c>
       <c r="B1439">
-        <v>57.5987165833075</v>
+        <v>57.59871658330749</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>73.74986152393424</v>
+        <v>73.74986152393423</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>83.64188829187063</v>
+        <v>83.64188829187061</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>9.069200519790796</v>
+        <v>9.069200519790794</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1462</v>
       </c>
       <c r="B1462">
-        <v>28.49597115243153</v>
+        <v>28.49597115243152</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>70.56476547576274</v>
+        <v>70.56476547576273</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1485</v>
       </c>
       <c r="B1485">
-        <v>25.66341025666576</v>
+        <v>25.66341025666575</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>63.24707471142761</v>
+        <v>63.2470747114276</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12295,7 +12295,7 @@
         <v>1494</v>
       </c>
       <c r="B1494">
-        <v>72.32524320500144</v>
+        <v>72.32524320500143</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>0.768329688506516</v>
+        <v>0.7683296885065158</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>38.18803555068928</v>
+        <v>38.18803555068927</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12783,7 +12783,7 @@
         <v>1555</v>
       </c>
       <c r="B1555">
-        <v>4.988039770912232</v>
+        <v>4.988039770912231</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>28.86995910486727</v>
+        <v>28.86995910486726</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12887,7 +12887,7 @@
         <v>1568</v>
       </c>
       <c r="B1568">
-        <v>3.321872301914751</v>
+        <v>3.32187230191475</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>0.4013197575012998</v>
+        <v>0.4013197575012997</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13055,7 +13055,7 @@
         <v>1589</v>
       </c>
       <c r="B1589">
-        <v>44.01458087031549</v>
+        <v>44.01458087031548</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>45.52272443526677</v>
+        <v>45.52272443526676</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13247,7 +13247,7 @@
         <v>1613</v>
       </c>
       <c r="B1613">
-        <v>51.76953362433334</v>
+        <v>51.76953362433333</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>3.649760179969064</v>
+        <v>3.649760179969063</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>4.465318266355856</v>
+        <v>4.465318266355855</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>7.30875209765596</v>
+        <v>7.308752097655959</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13439,7 +13439,7 @@
         <v>1637</v>
       </c>
       <c r="B1637">
-        <v>37.8876377360614</v>
+        <v>37.88763773606139</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>24.69794633400369</v>
+        <v>24.69794633400368</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13983,7 +13983,7 @@
         <v>1705</v>
       </c>
       <c r="B1705">
-        <v>7.581103013883948</v>
+        <v>7.581103013883947</v>
       </c>
     </row>
     <row r="1706" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>17.90180479007029</v>
+        <v>17.90180479007028</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>0.4343136950337941</v>
+        <v>0.434313695033794</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>0.3832577893886011</v>
+        <v>0.383257789388601</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>0.9868932770089874</v>
+        <v>0.9868932770089872</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>7.359277544721176</v>
+        <v>7.359277544721175</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>28.07875522179324</v>
+        <v>28.07875522179323</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14407,7 +14407,7 @@
         <v>1758</v>
       </c>
       <c r="B1758">
-        <v>30.56115484056643</v>
+        <v>30.56115484056642</v>
       </c>
     </row>
     <row r="1759" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>30.67691790083766</v>
+        <v>30.67691790083765</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>4.135584040757976</v>
+        <v>4.135584040757975</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14887,7 +14887,7 @@
         <v>1818</v>
       </c>
       <c r="B1818">
-        <v>6.917062654485072</v>
+        <v>6.917062654485071</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>5.56547763838668</v>
+        <v>5.565477638386679</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>48.18029261384785</v>
+        <v>48.18029261384784</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>4.336572159071927</v>
+        <v>4.336572159071926</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>20.88242517456777</v>
+        <v>20.88242517456776</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15207,7 +15207,7 @@
         <v>1858</v>
       </c>
       <c r="B1858">
-        <v>2.513679090729519</v>
+        <v>2.513679090729518</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -15407,7 +15407,7 @@
         <v>1883</v>
       </c>
       <c r="B1883">
-        <v>2.513506178816709</v>
+        <v>2.513506178816708</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>0.717326535648282</v>
+        <v>0.7173265356482819</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15543,7 +15543,7 @@
         <v>1900</v>
       </c>
       <c r="B1900">
-        <v>27.11918202700826</v>
+        <v>27.11918202700825</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -15687,7 +15687,7 @@
         <v>1918</v>
       </c>
       <c r="B1918">
-        <v>4.970631351215747</v>
+        <v>4.970631351215746</v>
       </c>
     </row>
     <row r="1919" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>17.02042294840016</v>
+        <v>17.02042294840015</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>1.274891255991105</v>
+        <v>1.274891255991104</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>0.4014281937856045</v>
+        <v>0.4014281937856044</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>36.36396140606107</v>
+        <v>36.36396140606106</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>0.7547546379957224</v>
+        <v>0.7547546379957223</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16183,7 +16183,7 @@
         <v>1980</v>
       </c>
       <c r="B1980">
-        <v>2.988767759372266</v>
+        <v>2.988767759372265</v>
       </c>
     </row>
     <row r="1981" spans="1:2">
@@ -16207,7 +16207,7 @@
         <v>1983</v>
       </c>
       <c r="B1983">
-        <v>1.360248196001222</v>
+        <v>1.360248196001221</v>
       </c>
     </row>
     <row r="1984" spans="1:2">
@@ -16215,7 +16215,7 @@
         <v>1984</v>
       </c>
       <c r="B1984">
-        <v>0.7348140845252045</v>
+        <v>0.7348140845252044</v>
       </c>
     </row>
     <row r="1985" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>0.7032708486340838</v>
+        <v>0.7032708486340837</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>2.836068956098545</v>
+        <v>2.836068956098544</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>3.411903724991516</v>
+        <v>3.411903724991515</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>10.74439457677905</v>
+        <v>10.74439457677904</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16591,7 +16591,7 @@
         <v>2031</v>
       </c>
       <c r="B2031">
-        <v>1.873755547102085</v>
+        <v>1.873755547102084</v>
       </c>
     </row>
     <row r="2032" spans="1:2">
@@ -16631,7 +16631,7 @@
         <v>2036</v>
       </c>
       <c r="B2036">
-        <v>0.8078210109661322</v>
+        <v>0.8078210109661321</v>
       </c>
     </row>
     <row r="2037" spans="1:2">
@@ -16751,7 +16751,7 @@
         <v>2051</v>
       </c>
       <c r="B2051">
-        <v>1.252907997381118</v>
+        <v>1.252907997381117</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>0.6471155069161836</v>
+        <v>0.6471155069161835</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>1.282642984963698</v>
+        <v>1.282642984963697</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>38.35625832688089</v>
+        <v>38.35625832688088</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17103,7 +17103,7 @@
         <v>2095</v>
       </c>
       <c r="B2095">
-        <v>3.002512791085483</v>
+        <v>3.002512791085482</v>
       </c>
     </row>
     <row r="2096" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>6.448002457107589</v>
+        <v>6.448002457107588</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>6.419750408980635</v>
+        <v>6.419750408980634</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>4.144581321644879</v>
+        <v>4.144581321644878</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17207,7 +17207,7 @@
         <v>2108</v>
       </c>
       <c r="B2108">
-        <v>5.489542932269525</v>
+        <v>5.489542932269524</v>
       </c>
     </row>
     <row r="2109" spans="1:2">
@@ -17391,7 +17391,7 @@
         <v>2131</v>
       </c>
       <c r="B2131">
-        <v>0.2956442023807919</v>
+        <v>0.2956442023807918</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>33.43676787191155</v>
+        <v>33.43676787191154</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>0.8490942053408095</v>
+        <v>0.8490942053408094</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>29.91522627135683</v>
+        <v>29.91522627135682</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>8.879437022257575</v>
+        <v>8.879437022257573</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>0.3902065037152616</v>
+        <v>0.3902065037152615</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>3.155818251409233</v>
+        <v>3.155818251409232</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>3.766285224940815</v>
+        <v>3.766285224940814</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>1.802137777384412</v>
+        <v>1.802137777384411</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18559,7 +18559,7 @@
         <v>2277</v>
       </c>
       <c r="B2277">
-        <v>3.235006046055528</v>
+        <v>3.235006046055527</v>
       </c>
     </row>
     <row r="2278" spans="1:2">
@@ -18567,7 +18567,7 @@
         <v>2278</v>
       </c>
       <c r="B2278">
-        <v>4.122307922706617</v>
+        <v>4.122307922706616</v>
       </c>
     </row>
     <row r="2279" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>23.88458628040686</v>
+        <v>23.88458628040685</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18759,7 +18759,7 @@
         <v>2302</v>
       </c>
       <c r="B2302">
-        <v>4.613348447983701</v>
+        <v>4.6133484479837</v>
       </c>
     </row>
     <row r="2303" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>9.199939510137622</v>
+        <v>9.19993951013762</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18783,7 +18783,7 @@
         <v>2305</v>
       </c>
       <c r="B2305">
-        <v>16.17444408820032</v>
+        <v>16.17444408820031</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>0.6667307515337874</v>
+        <v>0.6667307515337872</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>0.7868517781499129</v>
+        <v>0.7868517781499128</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19719,7 +19719,7 @@
         <v>2422</v>
       </c>
       <c r="B2422">
-        <v>0.5462990696166807</v>
+        <v>0.5462990696166806</v>
       </c>
     </row>
     <row r="2423" spans="1:2">
@@ -19735,7 +19735,7 @@
         <v>2424</v>
       </c>
       <c r="B2424">
-        <v>4.47226404997213</v>
+        <v>4.472264049972129</v>
       </c>
     </row>
     <row r="2425" spans="1:2">
@@ -19759,7 +19759,7 @@
         <v>2427</v>
       </c>
       <c r="B2427">
-        <v>19.2192763372685</v>
+        <v>19.21927633726849</v>
       </c>
     </row>
     <row r="2428" spans="1:2">
@@ -19807,7 +19807,7 @@
         <v>2433</v>
       </c>
       <c r="B2433">
-        <v>1.698417006091775</v>
+        <v>1.698417006091774</v>
       </c>
     </row>
     <row r="2434" spans="1:2">
@@ -19983,7 +19983,7 @@
         <v>2455</v>
       </c>
       <c r="B2455">
-        <v>0.5905674500064769</v>
+        <v>0.5905674500064768</v>
       </c>
     </row>
     <row r="2456" spans="1:2">
@@ -20135,7 +20135,7 @@
         <v>2474</v>
       </c>
       <c r="B2474">
-        <v>4.549253811828465</v>
+        <v>4.549253811828464</v>
       </c>
     </row>
     <row r="2475" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>0.7688513549553331</v>
+        <v>0.768851354955333</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20351,7 +20351,7 @@
         <v>2501</v>
       </c>
       <c r="B2501">
-        <v>8.852210722765935</v>
+        <v>8.852210722765934</v>
       </c>
     </row>
     <row r="2502" spans="1:2">
@@ -20519,7 +20519,7 @@
         <v>2522</v>
       </c>
       <c r="B2522">
-        <v>0.7290786842986019</v>
+        <v>0.7290786842986018</v>
       </c>
     </row>
     <row r="2523" spans="1:2">
@@ -20935,7 +20935,7 @@
         <v>2574</v>
       </c>
       <c r="B2574">
-        <v>0.533635470036124</v>
+        <v>0.5336354700361239</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>0.3636659904540902</v>
+        <v>0.3636659904540901</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21447,7 +21447,7 @@
         <v>2638</v>
       </c>
       <c r="B2638">
-        <v>0.2175733014628348</v>
+        <v>0.2175733014628347</v>
       </c>
     </row>
     <row r="2639" spans="1:2">
@@ -21567,7 +21567,7 @@
         <v>2653</v>
       </c>
       <c r="B2653">
-        <v>0.8827827212349311</v>
+        <v>0.882782721234931</v>
       </c>
     </row>
     <row r="2654" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>2.802060992772283</v>
+        <v>2.802060992772282</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -23015,7 +23015,7 @@
         <v>2834</v>
       </c>
       <c r="B2834">
-        <v>4.402513142770729</v>
+        <v>4.402513142770728</v>
       </c>
     </row>
     <row r="2835" spans="1:2">
@@ -23167,7 +23167,7 @@
         <v>2853</v>
       </c>
       <c r="B2853">
-        <v>0.1580511596527929</v>
+        <v>0.1580511596527928</v>
       </c>
     </row>
     <row r="2854" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>0.5511259496234331</v>
+        <v>0.551125949623433</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>0.7157029220940981</v>
+        <v>0.715702922094098</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23375,7 +23375,7 @@
         <v>2879</v>
       </c>
       <c r="B2879">
-        <v>0.7528408841132639</v>
+        <v>0.7528408841132638</v>
       </c>
     </row>
     <row r="2880" spans="1:2">
@@ -23399,7 +23399,7 @@
         <v>2882</v>
       </c>
       <c r="B2882">
-        <v>4.126352303040144</v>
+        <v>4.126352303040143</v>
       </c>
     </row>
     <row r="2883" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>0.9059968782072962</v>
+        <v>0.905996878207296</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23575,7 +23575,7 @@
         <v>2904</v>
       </c>
       <c r="B2904">
-        <v>0.8702011815451995</v>
+        <v>0.8702011815451994</v>
       </c>
     </row>
     <row r="2905" spans="1:2">
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>0.7883200640536063</v>
+        <v>0.7883200640536062</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>0.7808526139885152</v>
+        <v>0.7808526139885151</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>2.828241028655901</v>
+        <v>2.8282410286559</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>4.14396587246369</v>
+        <v>4.143965872463689</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>3.228910168451372</v>
+        <v>3.228910168451371</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25735,7 +25735,7 @@
         <v>3174</v>
       </c>
       <c r="B3174">
-        <v>9.035585271656339</v>
+        <v>9.035585271656338</v>
       </c>
     </row>
     <row r="3175" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>1.561089778795842</v>
+        <v>1.561089778795841</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -26119,7 +26119,7 @@
         <v>3222</v>
       </c>
       <c r="B3222">
-        <v>4.800298463545773</v>
+        <v>4.800298463545772</v>
       </c>
     </row>
     <row r="3223" spans="1:2">
@@ -26487,7 +26487,7 @@
         <v>3268</v>
       </c>
       <c r="B3268">
-        <v>0.5920093595166908</v>
+        <v>0.5920093595166906</v>
       </c>
     </row>
     <row r="3269" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>1.252808353227973</v>
+        <v>1.252808353227972</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27991,7 +27991,7 @@
         <v>3456</v>
       </c>
       <c r="B3456">
-        <v>0.4956388098736806</v>
+        <v>0.4956388098736805</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -28007,7 +28007,7 @@
         <v>3458</v>
       </c>
       <c r="B3458">
-        <v>3.428462238675882</v>
+        <v>3.428462238675881</v>
       </c>
     </row>
     <row r="3459" spans="1:2">
@@ -28047,7 +28047,7 @@
         <v>3463</v>
       </c>
       <c r="B3463">
-        <v>0.5409036317949254</v>
+        <v>0.5409036317949253</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -32047,7 +32047,7 @@
         <v>3963</v>
       </c>
       <c r="B3963">
-        <v>0.3982044123603297</v>
+        <v>0.3982044123603296</v>
       </c>
     </row>
     <row r="3964" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>0.2983375252260897</v>
+        <v>0.2983375252260896</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32447,7 +32447,7 @@
         <v>4013</v>
       </c>
       <c r="B4013">
-        <v>0.2065403491413898</v>
+        <v>0.2065403491413897</v>
       </c>
     </row>
     <row r="4014" spans="1:2">
@@ -33975,7 +33975,7 @@
         <v>4204</v>
       </c>
       <c r="B4204">
-        <v>0.1759381643554108</v>
+        <v>0.1759381643554107</v>
       </c>
     </row>
     <row r="4205" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>0.4441051984354696</v>
+        <v>0.4441051984354695</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -45127,7 +45127,7 @@
         <v>5598</v>
       </c>
       <c r="B5598">
-        <v>0.3252150701817217</v>
+        <v>0.3252150701817216</v>
       </c>
     </row>
     <row r="5599" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>0.0164159053169534</v>
+        <v>0.0164159053169533</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>0.346327907806885</v>
+        <v>0.3463279078068849</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>0.170602806096581</v>
+        <v>0.1706028060965809</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -52783,7 +52783,7 @@
         <v>6555</v>
       </c>
       <c r="B6555">
-        <v>0.2084608436577376</v>
+        <v>0.2084608436577375</v>
       </c>
     </row>
     <row r="6556" spans="1:2">
@@ -52831,7 +52831,7 @@
         <v>6561</v>
       </c>
       <c r="B6561">
-        <v>0.0247117792870285</v>
+        <v>0.0247117792870284</v>
       </c>
     </row>
     <row r="6562" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>0.4464175289305076</v>
+        <v>0.4464175289305075</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>0.881798002545029</v>
+        <v>0.8817980025450289</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53327,7 +53327,7 @@
         <v>6623</v>
       </c>
       <c r="B6623">
-        <v>0.7097535800092729</v>
+        <v>0.7097535800092728</v>
       </c>
     </row>
     <row r="6624" spans="1:2">
@@ -53351,7 +53351,7 @@
         <v>6626</v>
       </c>
       <c r="B6626">
-        <v>6.585130396097233</v>
+        <v>6.585130396097232</v>
       </c>
     </row>
     <row r="6627" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>15.43265198224459</v>
+        <v>15.43265198224458</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>3.314692061467548</v>
+        <v>3.314692061467547</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53735,7 +53735,7 @@
         <v>6674</v>
       </c>
       <c r="B6674">
-        <v>0.3884334239313605</v>
+        <v>0.3884334239313604</v>
       </c>
     </row>
     <row r="6675" spans="1:2">
@@ -53927,7 +53927,7 @@
         <v>6698</v>
       </c>
       <c r="B6698">
-        <v>0.4988625912989554</v>
+        <v>0.4988625912989553</v>
       </c>
     </row>
     <row r="6699" spans="1:2">
@@ -54495,7 +54495,7 @@
         <v>6769</v>
       </c>
       <c r="B6769">
-        <v>0.8420898075168033</v>
+        <v>0.8420898075168032</v>
       </c>
     </row>
     <row r="6770" spans="1:2">
@@ -54543,7 +54543,7 @@
         <v>6775</v>
       </c>
       <c r="B6775">
-        <v>0.5053746297780105</v>
+        <v>0.5053746297780104</v>
       </c>
     </row>
     <row r="6776" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>1.032603566908998</v>
+        <v>1.032603566908997</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>1.087275969171272</v>
+        <v>1.087275969171271</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -55055,7 +55055,7 @@
         <v>6839</v>
       </c>
       <c r="B6839">
-        <v>4.893817431982609</v>
+        <v>4.893817431982608</v>
       </c>
     </row>
     <row r="6840" spans="1:2">
@@ -55143,7 +55143,7 @@
         <v>6850</v>
       </c>
       <c r="B6850">
-        <v>2.718210437900885</v>
+        <v>2.718210437900884</v>
       </c>
     </row>
     <row r="6851" spans="1:2">
@@ -55439,7 +55439,7 @@
         <v>6887</v>
       </c>
       <c r="B6887">
-        <v>7.516685999586184</v>
+        <v>7.516685999586183</v>
       </c>
     </row>
     <row r="6888" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>3.196027597913569</v>
+        <v>3.196027597913568</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>3.297899090952253</v>
+        <v>3.297899090952252</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>0.753893009142058</v>
+        <v>0.7538930091420579</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55823,7 +55823,7 @@
         <v>6935</v>
       </c>
       <c r="B6935">
-        <v>0.6871519415077099</v>
+        <v>0.6871519415077098</v>
       </c>
     </row>
     <row r="6936" spans="1:2">
@@ -56015,7 +56015,7 @@
         <v>6959</v>
       </c>
       <c r="B6959">
-        <v>0.3002981704747341</v>
+        <v>0.300298170474734</v>
       </c>
     </row>
     <row r="6960" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>0.8096937349031782</v>
+        <v>0.8096937349031781</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56103,7 +56103,7 @@
         <v>6970</v>
       </c>
       <c r="B6970">
-        <v>0.6445452739071236</v>
+        <v>0.6445452739071235</v>
       </c>
     </row>
     <row r="6971" spans="1:2">
@@ -56223,7 +56223,7 @@
         <v>6985</v>
       </c>
       <c r="B6985">
-        <v>0.2229253647708683</v>
+        <v>0.2229253647708682</v>
       </c>
     </row>
     <row r="6986" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>2.832188695546669</v>
+        <v>2.832188695546668</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -57015,7 +57015,7 @@
         <v>7084</v>
       </c>
       <c r="B7084">
-        <v>0.5419440339821732</v>
+        <v>0.5419440339821731</v>
       </c>
     </row>
     <row r="7085" spans="1:2">
@@ -57607,7 +57607,7 @@
         <v>7158</v>
       </c>
       <c r="B7158">
-        <v>19.44743214086636</v>
+        <v>19.44743214086635</v>
       </c>
     </row>
     <row r="7159" spans="1:2">
@@ -57663,7 +57663,7 @@
         <v>7165</v>
       </c>
       <c r="B7165">
-        <v>1.292680668037849</v>
+        <v>1.292680668037848</v>
       </c>
     </row>
     <row r="7166" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>3.479984127272547</v>
+        <v>3.479984127272546</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>6.610832726187832</v>
+        <v>6.610832726187831</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -58207,7 +58207,7 @@
         <v>7233</v>
       </c>
       <c r="B7233">
-        <v>2.081964935808651</v>
+        <v>2.08196493580865</v>
       </c>
     </row>
     <row r="7234" spans="1:2">
@@ -58583,7 +58583,7 @@
         <v>7280</v>
       </c>
       <c r="B7280">
-        <v>4.606256128848097</v>
+        <v>4.606256128848096</v>
       </c>
     </row>
     <row r="7281" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>5.30625630469072</v>
+        <v>5.306256304690719</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>3.808633990027379</v>
+        <v>3.808633990027378</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>4.384665116516254</v>
+        <v>4.384665116516253</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>23.04057099616605</v>
+        <v>23.04057099616604</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59399,7 +59399,7 @@
         <v>7382</v>
       </c>
       <c r="B7382">
-        <v>0.8739554215504514</v>
+        <v>0.8739554215504513</v>
       </c>
     </row>
     <row r="7383" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>2.414448167749174</v>
+        <v>2.414448167749173</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>0.9623515082314864</v>
+        <v>0.9623515082314862</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>4.732774896238199</v>
+        <v>4.732774896238198</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>3.01792832771907</v>
+        <v>3.017928327719069</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>3.172992214274788</v>
+        <v>3.172992214274787</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>6.489296166454973</v>
+        <v>6.489296166454972</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60279,7 +60279,7 @@
         <v>7492</v>
       </c>
       <c r="B7492">
-        <v>38.63907187918909</v>
+        <v>38.63907187918908</v>
       </c>
     </row>
     <row r="7493" spans="1:2">
@@ -60511,7 +60511,7 @@
         <v>7521</v>
       </c>
       <c r="B7521">
-        <v>9.380090277602751</v>
+        <v>9.380090277602749</v>
       </c>
     </row>
     <row r="7522" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>34.94491143686283</v>
+        <v>34.94491143686282</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>4.623576627232982</v>
+        <v>4.623576627232981</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -60903,7 +60903,7 @@
         <v>7570</v>
       </c>
       <c r="B7570">
-        <v>6.204782802122538</v>
+        <v>6.204782802122537</v>
       </c>
     </row>
     <row r="7571" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>7.592239713353079</v>
+        <v>7.592239713353078</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>49.0055806587182</v>
+        <v>49.00558065871819</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>10.02897886430284</v>
+        <v>10.02897886430283</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>5.903300624651613</v>
+        <v>5.903300624651612</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61143,7 +61143,7 @@
         <v>7600</v>
       </c>
       <c r="B7600">
-        <v>6.636417827862968</v>
+        <v>6.636417827862967</v>
       </c>
     </row>
     <row r="7601" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>35.04426251896903</v>
+        <v>35.04426251896902</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>57.91494023402309</v>
+        <v>57.91494023402308</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61463,7 +61463,7 @@
         <v>7640</v>
       </c>
       <c r="B7640">
-        <v>6.177087588969041</v>
+        <v>6.17708758896904</v>
       </c>
     </row>
     <row r="7641" spans="1:2">
@@ -61471,7 +61471,7 @@
         <v>7641</v>
       </c>
       <c r="B7641">
-        <v>8.397452392075126</v>
+        <v>8.397452392075124</v>
       </c>
     </row>
     <row r="7642" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>9.207647278454417</v>
+        <v>9.207647278454411</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>7.536468294695825</v>
+        <v>7.536468294695824</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>3.900834138790239</v>
+        <v>3.900834138790238</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61703,7 +61703,7 @@
         <v>7670</v>
       </c>
       <c r="B7670">
-        <v>3.923635065598091</v>
+        <v>3.92363506559809</v>
       </c>
     </row>
     <row r="7671" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>17.21534449621382</v>
+        <v>17.21534449621381</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61783,7 +61783,7 @@
         <v>7680</v>
       </c>
       <c r="B7680">
-        <v>26.94943528141561</v>
+        <v>26.9494352814156</v>
       </c>
     </row>
     <row r="7681" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>11.69089680323973</v>
+        <v>11.69089680323972</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>26.89325356330423</v>
+        <v>26.89325356330422</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>35.52577823548962</v>
+        <v>35.52577823548961</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>5.131351508817629</v>
+        <v>5.131351508817628</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>13.90551741398805</v>
+        <v>13.90551741398804</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62223,7 +62223,7 @@
         <v>7735</v>
       </c>
       <c r="B7735">
-        <v>32.33364848239025</v>
+        <v>32.33364848239024</v>
       </c>
     </row>
     <row r="7736" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>7.70747524575472</v>
+        <v>7.707475245754719</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62559,7 +62559,7 @@
         <v>7777</v>
       </c>
       <c r="B7777">
-        <v>8.459202459921071</v>
+        <v>8.45920245992107</v>
       </c>
     </row>
     <row r="7778" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>4.502245217227185</v>
+        <v>4.502245217227184</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>7.080185994603976</v>
+        <v>7.080185994603975</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62647,7 +62647,7 @@
         <v>7788</v>
       </c>
       <c r="B7788">
-        <v>4.037229400183229</v>
+        <v>4.037229400183228</v>
       </c>
     </row>
     <row r="7789" spans="1:2">
@@ -62671,7 +62671,7 @@
         <v>7791</v>
       </c>
       <c r="B7791">
-        <v>2.5260965106376</v>
+        <v>2.526096510637599</v>
       </c>
     </row>
     <row r="7792" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>1.555547805454756</v>
+        <v>1.555547805454755</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>0.8197636557915821</v>
+        <v>0.8197636557915819</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>0.4062931730273828</v>
+        <v>0.4062931730273827</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>4.219079979672594</v>
+        <v>4.219079979672593</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>3.093540655693697</v>
+        <v>3.093540655693696</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>0.4886021742354217</v>
+        <v>0.4886021742354216</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>0.2094411662820598</v>
+        <v>0.2094411662820597</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>6.107336681767641</v>
+        <v>6.10733668176764</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>5.380872191133898</v>
+        <v>5.380872191133897</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -64103,7 +64103,7 @@
         <v>7970</v>
       </c>
       <c r="B7970">
-        <v>0.7603493641237675</v>
+        <v>0.7603493641237674</v>
       </c>
     </row>
     <row r="7971" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>0.2517752778166911</v>
+        <v>0.251775277816691</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>0.5962325131838008</v>
+        <v>0.5962325131838007</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64295,7 +64295,7 @@
         <v>7994</v>
       </c>
       <c r="B7994">
-        <v>3.59436975366207</v>
+        <v>3.594369753662069</v>
       </c>
     </row>
     <row r="7995" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>22.93623770640261</v>
+        <v>22.9362377064026</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>7.270887319460914</v>
+        <v>7.270887319460913</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64599,7 +64599,7 @@
         <v>8032</v>
       </c>
       <c r="B8032">
-        <v>2.16573636149961</v>
+        <v>2.165736361499609</v>
       </c>
     </row>
     <row r="8033" spans="1:2">
@@ -64607,7 +64607,7 @@
         <v>8033</v>
       </c>
       <c r="B8033">
-        <v>2.434350621984666</v>
+        <v>2.434350621984665</v>
       </c>
     </row>
     <row r="8034" spans="1:2">
@@ -64615,7 +64615,7 @@
         <v>8034</v>
       </c>
       <c r="B8034">
-        <v>3.094918089575405</v>
+        <v>3.094918089575404</v>
       </c>
     </row>
     <row r="8035" spans="1:2">
@@ -64679,7 +64679,7 @@
         <v>8042</v>
       </c>
       <c r="B8042">
-        <v>45.69622249015429</v>
+        <v>45.69622249015428</v>
       </c>
     </row>
     <row r="8043" spans="1:2">
@@ -64767,7 +64767,7 @@
         <v>8053</v>
       </c>
       <c r="B8053">
-        <v>4.116886108491382</v>
+        <v>4.116886108491381</v>
       </c>
     </row>
     <row r="8054" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>41.81361736996878</v>
+        <v>41.81361736996877</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>3.499590579758991</v>
+        <v>3.49959057975899</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>1.383942989476992</v>
+        <v>1.383942989476991</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>42.18552451803003</v>
+        <v>42.18552451803002</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>4.870137292058772</v>
+        <v>4.870137292058771</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65183,7 +65183,7 @@
         <v>8105</v>
       </c>
       <c r="B8105">
-        <v>1.800704660005358</v>
+        <v>1.800704660005357</v>
       </c>
     </row>
     <row r="8106" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>4.849387862521549</v>
+        <v>4.849387862521548</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>41.34470370811063</v>
+        <v>41.34470370811062</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>13.78770285644619</v>
+        <v>13.78770285644618</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65351,7 +65351,7 @@
         <v>8126</v>
       </c>
       <c r="B8126">
-        <v>4.18786791405516</v>
+        <v>4.187867914055159</v>
       </c>
     </row>
     <row r="8127" spans="1:2">
@@ -65463,7 +65463,7 @@
         <v>8140</v>
       </c>
       <c r="B8140">
-        <v>50.04510363284999</v>
+        <v>50.04510363284998</v>
       </c>
     </row>
     <row r="8141" spans="1:2">
@@ -65567,7 +65567,7 @@
         <v>8153</v>
       </c>
       <c r="B8153">
-        <v>8.143828715217598</v>
+        <v>8.143828715217596</v>
       </c>
     </row>
     <row r="8154" spans="1:2">
@@ -65575,7 +65575,7 @@
         <v>8154</v>
       </c>
       <c r="B8154">
-        <v>8.908363133773449</v>
+        <v>8.908363133773447</v>
       </c>
     </row>
     <row r="8155" spans="1:2">
@@ -65639,7 +65639,7 @@
         <v>8162</v>
       </c>
       <c r="B8162">
-        <v>56.31711693124144</v>
+        <v>56.31711693124143</v>
       </c>
     </row>
     <row r="8163" spans="1:2">
@@ -65647,7 +65647,7 @@
         <v>8163</v>
       </c>
       <c r="B8163">
-        <v>61.56807073093676</v>
+        <v>61.56807073093675</v>
       </c>
     </row>
     <row r="8164" spans="1:2">
@@ -65679,7 +65679,7 @@
         <v>8167</v>
       </c>
       <c r="B8167">
-        <v>67.7067367067373</v>
+        <v>67.70673670673729</v>
       </c>
     </row>
     <row r="8168" spans="1:2">
@@ -65799,7 +65799,7 @@
         <v>8182</v>
       </c>
       <c r="B8182">
-        <v>52.12649414942286</v>
+        <v>52.12649414942285</v>
       </c>
     </row>
     <row r="8183" spans="1:2">
@@ -65807,7 +65807,7 @@
         <v>8183</v>
       </c>
       <c r="B8183">
-        <v>55.89919763011036</v>
+        <v>55.89919763011035</v>
       </c>
     </row>
     <row r="8184" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>78.63389038322556</v>
+        <v>78.63389038322555</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>80.49049541314518</v>
+        <v>80.49049541314517</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>71.2429318592251</v>
+        <v>71.24293185922508</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>49.22714236394617</v>
+        <v>49.22714236394616</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66223,7 +66223,7 @@
         <v>8235</v>
       </c>
       <c r="B8235">
-        <v>66.02040595027992</v>
+        <v>66.02040595027991</v>
       </c>
     </row>
     <row r="8236" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>67.29878182092071</v>
+        <v>67.29878182092069</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>9.491633114917258</v>
+        <v>9.491633114917256</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66343,7 +66343,7 @@
         <v>8250</v>
       </c>
       <c r="B8250">
-        <v>9.853868918702682</v>
+        <v>9.85386891870268</v>
       </c>
     </row>
     <row r="8251" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>54.89074018607667</v>
+        <v>54.89074018607666</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66431,7 +66431,7 @@
         <v>8261</v>
       </c>
       <c r="B8261">
-        <v>59.22145092437537</v>
+        <v>59.22145092437536</v>
       </c>
     </row>
     <row r="8262" spans="1:2">
@@ -66455,7 +66455,7 @@
         <v>8264</v>
       </c>
       <c r="B8264">
-        <v>7.872298397897861</v>
+        <v>7.87229839789786</v>
       </c>
     </row>
     <row r="8265" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>8.819767758786124</v>
+        <v>8.819767758786123</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>5.505632532292033</v>
+        <v>5.505632532292032</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>29.54830133095282</v>
+        <v>29.54830133095281</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>60.32457031389667</v>
+        <v>60.32457031389666</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>65.08785390525952</v>
+        <v>65.08785390525951</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66695,7 +66695,7 @@
         <v>8294</v>
       </c>
       <c r="B8294">
-        <v>22.21035935784619</v>
+        <v>22.21035935784618</v>
       </c>
     </row>
     <row r="8295" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>33.49274444029587</v>
+        <v>33.49274444029586</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>38.86092665545573</v>
+        <v>38.86092665545572</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66943,7 +66943,7 @@
         <v>8325</v>
       </c>
       <c r="B8325">
-        <v>52.99486363697643</v>
+        <v>52.99486363697642</v>
       </c>
     </row>
     <row r="8326" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>68.48630566957648</v>
+        <v>68.48630566957647</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>69.00357605281376</v>
+        <v>69.00357605281374</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>32.0405774437289</v>
+        <v>32.04057744372889</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67175,7 +67175,7 @@
         <v>8354</v>
       </c>
       <c r="B8354">
-        <v>53.20177179027134</v>
+        <v>53.20177179027133</v>
       </c>
     </row>
     <row r="8355" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>62.69903186913089</v>
+        <v>62.69903186913088</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67303,7 +67303,7 @@
         <v>8370</v>
       </c>
       <c r="B8370">
-        <v>4.408315949336224</v>
+        <v>4.408315949336223</v>
       </c>
     </row>
     <row r="8371" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>24.46530654351432</v>
+        <v>24.46530654351431</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>57.33407343539631</v>
+        <v>57.3340734353963</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>8.994760475970814</v>
+        <v>8.994760475970812</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>30.83253862236684</v>
+        <v>30.83253862236683</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -67951,7 +67951,7 @@
         <v>8451</v>
       </c>
       <c r="B8451">
-        <v>35.83936424685726</v>
+        <v>35.83936424685725</v>
       </c>
     </row>
     <row r="8452" spans="1:2">
@@ -68007,7 +68007,7 @@
         <v>8458</v>
       </c>
       <c r="B8458">
-        <v>5.536844597909466</v>
+        <v>5.536844597909465</v>
       </c>
     </row>
     <row r="8459" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>3.422659432110388</v>
+        <v>3.422659432110387</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>6.228580170461839</v>
+        <v>6.228580170461838</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>45.94064373639785</v>
+        <v>45.94064373639784</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68143,7 +68143,7 @@
         <v>8475</v>
       </c>
       <c r="B8475">
-        <v>50.49350232200185</v>
+        <v>50.49350232200184</v>
       </c>
     </row>
     <row r="8476" spans="1:2">
@@ -68239,7 +68239,7 @@
         <v>8487</v>
       </c>
       <c r="B8487">
-        <v>8.655999662382165</v>
+        <v>8.655999662382163</v>
       </c>
     </row>
     <row r="8488" spans="1:2">
@@ -68287,7 +68287,7 @@
         <v>8493</v>
       </c>
       <c r="B8493">
-        <v>34.81508096673586</v>
+        <v>34.81508096673585</v>
       </c>
     </row>
     <row r="8494" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>63.35873477715758</v>
+        <v>63.35873477715757</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>58.43455518556966</v>
+        <v>58.43455518556965</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>56.18464882176651</v>
+        <v>56.1846488217665</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68535,7 +68535,7 @@
         <v>8524</v>
       </c>
       <c r="B8524">
-        <v>71.72180993639773</v>
+        <v>71.72180993639772</v>
       </c>
     </row>
     <row r="8525" spans="1:2">
@@ -68551,7 +68551,7 @@
         <v>8526</v>
       </c>
       <c r="B8526">
-        <v>77.25557728840126</v>
+        <v>77.25557728840124</v>
       </c>
     </row>
     <row r="8527" spans="1:2">
@@ -68647,7 +68647,7 @@
         <v>8538</v>
       </c>
       <c r="B8538">
-        <v>24.45331993803306</v>
+        <v>24.45331993803305</v>
       </c>
     </row>
     <row r="8539" spans="1:2">
@@ -68847,7 +68847,7 @@
         <v>8563</v>
       </c>
       <c r="B8563">
-        <v>89.78963946986967</v>
+        <v>89.78963946986966</v>
       </c>
     </row>
     <row r="8564" spans="1:2">
@@ -68927,7 +68927,7 @@
         <v>8573</v>
       </c>
       <c r="B8573">
-        <v>83.29284068482497</v>
+        <v>83.29284068482495</v>
       </c>
     </row>
     <row r="8574" spans="1:2">
@@ -68975,7 +68975,7 @@
         <v>8579</v>
       </c>
       <c r="B8579">
-        <v>41.87457614601034</v>
+        <v>41.87457614601033</v>
       </c>
     </row>
     <row r="8580" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>45.99925794413012</v>
+        <v>45.99925794413011</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>23.39114257261275</v>
+        <v>23.39114257261274</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>68.13989570187877</v>
+        <v>68.13989570187876</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>80.32549641837885</v>
+        <v>80.32549641837883</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>80.867970910941</v>
+        <v>80.86797091094098</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69215,7 +69215,7 @@
         <v>8609</v>
       </c>
       <c r="B8609">
-        <v>11.6338065649085</v>
+        <v>11.63380656490849</v>
       </c>
     </row>
     <row r="8610" spans="1:2">
@@ -69231,7 +69231,7 @@
         <v>8611</v>
       </c>
       <c r="B8611">
-        <v>62.65858806579563</v>
+        <v>62.65858806579562</v>
       </c>
     </row>
     <row r="8612" spans="1:2">
@@ -69279,7 +69279,7 @@
         <v>8617</v>
       </c>
       <c r="B8617">
-        <v>59.8459853077627</v>
+        <v>59.84598530776269</v>
       </c>
     </row>
     <row r="8618" spans="1:2">
@@ -69319,7 +69319,7 @@
         <v>8622</v>
       </c>
       <c r="B8622">
-        <v>70.89593574945006</v>
+        <v>70.89593574945005</v>
       </c>
     </row>
     <row r="8623" spans="1:2">
@@ -69327,7 +69327,7 @@
         <v>8623</v>
       </c>
       <c r="B8623">
-        <v>71.74437640637466</v>
+        <v>71.74437640637464</v>
       </c>
     </row>
     <row r="8624" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>50.25640785172482</v>
+        <v>50.25640785172481</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>57.92988685699482</v>
+        <v>57.92988685699481</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69535,7 +69535,7 @@
         <v>8649</v>
       </c>
       <c r="B8649">
-        <v>8.881429905320472</v>
+        <v>8.88142990532047</v>
       </c>
     </row>
     <row r="8650" spans="1:2">
@@ -69623,7 +69623,7 @@
         <v>8660</v>
       </c>
       <c r="B8660">
-        <v>27.3740072951243</v>
+        <v>27.37400729512429</v>
       </c>
     </row>
     <row r="8661" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>47.94554271188011</v>
+        <v>47.9455427118801</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>5.229178621522786</v>
+        <v>5.229178621522785</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>8.145850905384361</v>
+        <v>8.145850905384359</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>40.62609352131301</v>
+        <v>40.626093521313</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -70079,7 +70079,7 @@
         <v>8717</v>
       </c>
       <c r="B8717">
-        <v>32.03823287541961</v>
+        <v>32.0382328754196</v>
       </c>
     </row>
     <row r="8718" spans="1:2">
@@ -70135,7 +70135,7 @@
         <v>8724</v>
       </c>
       <c r="B8724">
-        <v>2.753343794015607</v>
+        <v>2.753343794015606</v>
       </c>
     </row>
     <row r="8725" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>48.72276710641</v>
+        <v>48.72276710640999</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>7.678080220576987</v>
+        <v>7.678080220576986</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>9.317754067679482</v>
+        <v>9.317754067679481</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>5.529986735604791</v>
+        <v>5.52998673560479</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>22.0683371325109</v>
+        <v>22.06833713251089</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
